--- a/lowe/edd/data/MONOHWS.xlsx
+++ b/lowe/edd/data/MONOHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,14 +1310,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH43"/>
+  <dimension ref="A1:JI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1327,12 +1327,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1342,14 +1342,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1357,12 +1357,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2177,11 +2177,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2984,8 +2987,11 @@
       <c r="JH9" s="11">
         <v>9000</v>
       </c>
+      <c r="JI9" s="11">
+        <v>8420</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3786,10 +3792,13 @@
         <v>7500</v>
       </c>
       <c r="JH10" s="11">
-        <v>8460</v>
+        <v>8470</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>7950</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4592,8 +4601,11 @@
       <c r="JH11" s="11">
         <v>530</v>
       </c>
+      <c r="JI11" s="11">
+        <v>460</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5396,8 +5408,11 @@
       <c r="JH12" s="12">
         <v>5.8999999999999997E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>5.5E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6200,8 +6215,11 @@
       <c r="JH13" s="11">
         <v>8150</v>
       </c>
+      <c r="JI13" s="11">
+        <v>7480</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7004,8 +7022,11 @@
       <c r="JH14" s="11">
         <v>80</v>
       </c>
+      <c r="JI14" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7808,8 +7829,11 @@
       <c r="JH15" s="11">
         <v>8070</v>
       </c>
+      <c r="JI15" s="11">
+        <v>7420</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8612,8 +8636,11 @@
       <c r="JH16" s="11">
         <v>6350</v>
       </c>
+      <c r="JI16" s="11">
+        <v>5730</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9416,8 +9443,11 @@
       <c r="JH17" s="11">
         <v>600</v>
       </c>
+      <c r="JI17" s="11">
+        <v>610</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10220,8 +10250,11 @@
       <c r="JH18" s="11">
         <v>470</v>
       </c>
+      <c r="JI18" s="11">
+        <v>480</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11024,8 +11057,11 @@
       <c r="JH19" s="11">
         <v>130</v>
       </c>
+      <c r="JI19" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11828,8 +11864,11 @@
       <c r="JH20" s="11">
         <v>7470</v>
       </c>
+      <c r="JI20" s="11">
+        <v>6810</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12632,8 +12671,11 @@
       <c r="JH21" s="11">
         <v>660</v>
       </c>
+      <c r="JI21" s="11">
+        <v>630</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13436,8 +13478,11 @@
       <c r="JH22" s="11">
         <v>10</v>
       </c>
+      <c r="JI22" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14240,8 +14285,11 @@
       <c r="JH23" s="11">
         <v>630</v>
       </c>
+      <c r="JI23" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15044,8 +15092,11 @@
       <c r="JH24" s="11">
         <v>30</v>
       </c>
+      <c r="JI24" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15848,8 +15899,11 @@
       <c r="JH25" s="11">
         <v>370</v>
       </c>
+      <c r="JI25" s="11">
+        <v>360</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16652,8 +16706,11 @@
       <c r="JH26" s="11">
         <v>370</v>
       </c>
+      <c r="JI26" s="11">
+        <v>380</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17456,8 +17513,11 @@
       <c r="JH27" s="11">
         <v>100</v>
       </c>
+      <c r="JI27" s="11">
+        <v>90</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18260,8 +18320,11 @@
       <c r="JH28" s="11">
         <v>3990</v>
       </c>
+      <c r="JI28" s="11">
+        <v>3390</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19064,8 +19127,11 @@
       <c r="JH29" s="11">
         <v>260</v>
       </c>
+      <c r="JI29" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -19868,8 +19934,11 @@
       <c r="JH30" s="11">
         <v>1720</v>
       </c>
+      <c r="JI30" s="11">
+        <v>1690</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20672,8 +20741,11 @@
       <c r="JH31" s="11">
         <v>230</v>
       </c>
+      <c r="JI31" s="11">
+        <v>230</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21476,8 +21548,11 @@
       <c r="JH32" s="11">
         <v>1490</v>
       </c>
+      <c r="JI32" s="11">
+        <v>1460</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22280,8 +22355,11 @@
       <c r="JH33" s="11">
         <v>120</v>
       </c>
+      <c r="JI33" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23084,8 +23162,11 @@
       <c r="JH34" s="11">
         <v>1370</v>
       </c>
+      <c r="JI34" s="11">
+        <v>1350</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>89</v>
       </c>
@@ -23098,7 +23179,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -23111,7 +23192,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
@@ -23124,7 +23205,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>91</v>
       </c>
@@ -23137,7 +23218,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>92</v>
       </c>
@@ -23150,7 +23231,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>93</v>
       </c>
@@ -23163,7 +23244,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>94</v>
       </c>
@@ -23176,7 +23257,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>95</v>
       </c>

--- a/lowe/edd/data/MONOHWS.xlsx
+++ b/lowe/edd/data/MONOHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1310,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI43"/>
+  <dimension ref="A1:JJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,12 +1327,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1342,14 +1342,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1357,12 +1357,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2180,11 +2180,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2988,10 +2991,13 @@
         <v>9000</v>
       </c>
       <c r="JI9" s="11">
-        <v>8420</v>
+        <v>8430</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>8020</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3795,10 +3801,13 @@
         <v>8470</v>
       </c>
       <c r="JI10" s="11">
-        <v>7950</v>
+        <v>7960</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>7550</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4602,10 +4611,13 @@
         <v>530</v>
       </c>
       <c r="JI11" s="11">
-        <v>460</v>
+        <v>470</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>470</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5409,10 +5421,13 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="JI12" s="12">
-        <v>5.5E-2</v>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="JJ12" s="12">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6218,8 +6233,11 @@
       <c r="JI13" s="11">
         <v>7480</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>7040</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7025,8 +7043,11 @@
       <c r="JI14" s="11">
         <v>60</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7832,8 +7853,11 @@
       <c r="JI15" s="11">
         <v>7420</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>6990</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8639,8 +8663,11 @@
       <c r="JI16" s="11">
         <v>5730</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>5340</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9446,8 +9473,11 @@
       <c r="JI17" s="11">
         <v>610</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>590</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -10253,8 +10283,11 @@
       <c r="JI18" s="11">
         <v>480</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>470</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -11060,8 +11093,11 @@
       <c r="JI19" s="11">
         <v>130</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -11867,8 +11903,11 @@
       <c r="JI20" s="11">
         <v>6810</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12674,8 +12713,11 @@
       <c r="JI21" s="11">
         <v>630</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>600</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13481,8 +13523,11 @@
       <c r="JI22" s="11">
         <v>10</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -14288,8 +14333,11 @@
       <c r="JI23" s="11">
         <v>600</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>570</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -15095,8 +15143,11 @@
       <c r="JI24" s="11">
         <v>30</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -15902,8 +15953,11 @@
       <c r="JI25" s="11">
         <v>360</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -16709,8 +16763,11 @@
       <c r="JI26" s="11">
         <v>380</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>380</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -17516,8 +17573,11 @@
       <c r="JI27" s="11">
         <v>90</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18323,8 +18383,11 @@
       <c r="JI28" s="11">
         <v>3390</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>3060</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -19130,8 +19193,11 @@
       <c r="JI29" s="11">
         <v>260</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -19937,8 +20003,11 @@
       <c r="JI30" s="11">
         <v>1690</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>1650</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -20744,8 +20813,11 @@
       <c r="JI31" s="11">
         <v>230</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>190</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -21551,8 +21623,11 @@
       <c r="JI32" s="11">
         <v>1460</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>1460</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -22358,8 +22433,11 @@
       <c r="JI33" s="11">
         <v>110</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -23165,8 +23243,11 @@
       <c r="JI34" s="11">
         <v>1350</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>1340</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>89</v>
       </c>
@@ -23179,7 +23260,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>15</v>
       </c>
@@ -23192,7 +23273,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
@@ -23205,7 +23286,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>91</v>
       </c>
@@ -23218,7 +23299,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>92</v>
       </c>
@@ -23231,7 +23312,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>93</v>
       </c>
@@ -23244,7 +23325,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>94</v>
       </c>
@@ -23257,7 +23338,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>95</v>
       </c>
